--- a/DOC/SharedPreference.xlsx
+++ b/DOC/SharedPreference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_kkm\Desktop\Github\CapstoneProject\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4262FF-8F29-4CD6-A620-25D755257974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5123B-B04C-4A2E-856B-BDD9D12A9317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="1830" windowWidth="17220" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1200" windowWidth="17220" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생성Activity_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용Activity_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LoginActivity_getUUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +88,74 @@
   </si>
   <si>
     <t>FingerTestActivity_onCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useFingerLoginPref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwPref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idPref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문으로 로그인 사용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 Activity_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 Activity_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문으로 로그인 시 사용 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문으로 로그인 시 사용 PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainActivity_onDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문 로그인 사용시 true, false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceIdPref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertising ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwtPref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt 송수신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,20 +484,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -446,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -458,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -469,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -478,44 +538,114 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
